--- a/data/PVAL06 comparisons.xlsx
+++ b/data/PVAL06 comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Quality Management System\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,17 +409,17 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -455,8 +455,12 @@
       <c r="E4">
         <v>2.6</v>
       </c>
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>-2.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -472,8 +476,12 @@
       <c r="E5">
         <v>2.2999999999999998</v>
       </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="0">D5-E5</f>
+        <v>-1.2999999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -488,6 +496,10 @@
       </c>
       <c r="E6">
         <v>2.6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/PVAL06 comparisons.xlsx
+++ b/data/PVAL06 comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Quality Management System\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Analyst</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>PVAL06 analysis</t>
+  </si>
+  <si>
+    <t>Poultry Meal</t>
+  </si>
+  <si>
+    <t>Salmon Meal</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,17 +415,17 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -439,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -455,8 +461,12 @@
       <c r="E4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -472,8 +482,12 @@
       <c r="E5">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="0">D5-E5</f>
+        <v>-1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -488,6 +502,112 @@
       </c>
       <c r="E6">
         <v>2.6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>9621405</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9621407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1.2</v>
+      </c>
+      <c r="E8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9621408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>3.9</v>
+      </c>
+      <c r="E9">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9621410</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>2.1</v>
+      </c>
+      <c r="E10">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9621411</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9621412</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
